--- a/diary/2017-4-18(L).xlsx
+++ b/diary/2017-4-18(L).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>P</t>
   </si>
@@ -61,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高蛋白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二頭+三頭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全家腿條</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +74,10 @@
   </si>
   <si>
     <t>重黑巧克力蛋糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +462,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -497,20 +493,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -566,7 +550,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>19.3</v>
@@ -583,7 +567,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>11.6</v>
@@ -600,7 +584,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>6.1</v>
@@ -617,7 +601,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>9.3000000000000007</v>
@@ -643,19 +627,19 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>210.70000000000002</v>
+        <v>180.70000000000002</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>92.100000000000009</v>
+        <v>91.100000000000009</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>2071.7000000000003</v>
+        <v>1922.7000000000003</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F2:F17)</f>
